--- a/word/src/main/resources/单词设计思路.xlsx
+++ b/word/src/main/resources/单词设计思路.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dazhi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\blog\word\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E8AD31-A82C-4D58-925A-D9189C3FADC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1BE51B-9DD3-4B92-9973-6D0470AF8E27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="350" windowWidth="21820" windowHeight="14160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -4988,6 +4989,132 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9936A0E-EF1E-4ADF-AE8F-0A7C91CB2DF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1212850" y="1314450"/>
+          <a:ext cx="11315700" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="4800"/>
+            <a:t>http://154.8.146.181:8888/filter_word.html</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="4800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{043F8EE0-CD5D-4447-8505-3EDAD69162DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2641600" y="3022600"/>
+          <a:ext cx="2476500" cy="2476500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5258,11 +5385,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9730C509-CE2B-4C2C-8BF1-CBF941730B6B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
